--- a/petro-web-scraping/mesraoutletsperwebsite.xlsx
+++ b/petro-web-scraping/mesraoutletsperwebsite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,6 +3064,1666 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>NPE TAMAN DESA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ch 11760-Ch 11950, Off New Pantai Expressway (Npe) Near Taman Desa (West Bound), 52700 , Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EAST WEST LINK</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Lot Pt 8060, L/Raya Hubungan Timur Barat (Connaught H/Way), Cheras, 57100 Kuala Lumpur, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>D. JAYA 2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Lot 10068, Jalan Ss 22/48, Damansara, 47400 Petaling Jaya, Selangor</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>R&amp;R AWAN BESAR</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Km 47.2 Awan Besar Lebuhraya Kesas, 47000 Shah Alam, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ALAM DAMAI</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Lot 899 (Sppr Sungai Midah) Mukim Cheras, 56000 Kuala Lumpur, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TAMAN PERMAI JAYA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Lot Pt 32710, Hsm 32875, Taman Permai Jaya, 68000 Ampang, Selangor</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>BT 6 JALAN IPOH</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Lot Pt 17011 , Batu 6, Mukim Batu, Jalan Ipoh, 68100 , Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>KOTA DAMANSARA 2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Lot 1, Jalan Camar 4/1, Off Persiaran Surian, Seksyen 4, Kota Damansara, Mukim Sungai Buloh, 47810 Petaling, Selangor</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ARA DAMANSARA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Lot 1423, Mukim Damansara, Jln Pju 1A/20 Ara Damansara, 47600 Petaling Jaya, Selangor</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>GRAND SAGA</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Lot 219 Lebuhraya Cheras Kajang, Cheras, 43200 Cheras, Selangor</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>USJ 1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Lot Hs(D) 216848, Pt 36061 Pekan Penaga, Taman Subang Mewah, 47500 Petaling Jaya, Selangor</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SUBANG</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Lot 1210 Jalan Lapangan Terbang, 47200 Subang, Selangor</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>GLENMARIE TTDI JAYA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Lot Pt 4, Bandar Glenmarie, 40000 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TAMAN EQUINE</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Lot 53391 Pn 7404 Taman Equine, Mukim Petaling, Selangor, 43300 Petaling, Selangor</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>LDP PUCHONG UTAMA</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Lot 30476 Hs(D) 93764, Mukim &amp; Daerah Petaling, Lebuhraya Damansara-Puchong (Hillcrest), 47100 Puchong, Selangor</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>OLAK LEMPIT</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Lot Pt 4024 Hsm 5694 Mk Tanjung 12, Olak Lempit, 42700 Banting, Selangor</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BDR BARU NILAI</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Lot 9252 Bandar Baru Nilai Mukim Labu, 71800 Nilai, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PRIMA SAUJANA 1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sublot D, Prima Saujana, Mk Kajang, 43000 Kajang, Selangor</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>PERSIARAN KAYANGAN</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Lot 12 Off Persiaran Kayangan Seks 7 Shah Alam, 40000 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>NKVE KLANG BOUND</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>New Klang Valley Expressway (Nkve), Bukit Raja Toll (Klang Bound), Klang, 40000 Klang, Selangor</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>BUKIT TINGGI 1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Part Of Lot 7725 Bandar Bukit Tinggi Klang Selangor, 41000 Klang, Selangor</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PUNCAK ALAM</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Pt 1933 Bandar Puncak Alam, Mukim Ijok, Kuala Selangor, 42300 Kuala Selangor, Selangor</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Klang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>BUKIT BERUNTUNG</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Lot 10496, Bandar Bukit Beruntung, Mukim Serendah Ulu Selangor, 48200 Ulu Selangor, Selangor</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Selayang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SENAWANG 2</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Lot 2172 , Jln Tampin-Seremban, Mukim Rantau, 70450 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Semenyih, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>PEKAN LUKUT</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Lot 4729 - 4734 &amp; Lot 4735 - 4740, Pekan Lukut, 71050 Port Dickson, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Tanjung Sepat, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>JALAN LINGKARAN DALAM</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Part Of Lot 823 G 72225 Inner Ring Road, Mukim Bandar, 80100 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TAMAN BAYU PUTERI</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Lot Ptd 148144 Taman Bayu Putri Bandar Baru Permas Jaya, 81100 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TAMAN NUSA BESTARI</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Lot Ptd 12351 Taman Tan Sri Yaakob Mukim Pulai, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BUKIT INDAH 1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Lot 2595, Bukit Indah 1, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>AIR KEROH RSA NORTH BOUND</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Lebuhraya Senawang - Air-Keroh (North Bound), 78000 Alor Gajah, Melaka</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Tangkak, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PEDAS LINGGI LAYBY NORTHBOUND</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Km 225 Pedas-Linggi Layby, Plus Highway (Northbound), 70400 Rembau, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Masjid Tanah, Melaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>KM 16 JALAN GAMBANG</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Lot 105826, Batu 10, Jalan Gambang (Arah Kl) Mukim Kuala Kuantan, 25150 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>BATU RAKIT (GONG POK JIN)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Lot 6820, Gm 89, Gong Pak Jin, Mukim Batu Pahat, 21300 Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>BUKIT PAYUNG</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Lot 52310, Kg. Padang Menkuang, Bukit Payung, 21400, Marang Terengganu, 21400 Marang, Terengganu</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PAKA 2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Lot 2475 Gm 5709 Mukim Paka Daerah Dungun, 23100 Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Dungun, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TOK KENALI</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>S/55, Lot Pt 416, 372 Kampung Pulau, Mukim Pulau, Daerah Kubang Kerian, 16150 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CHETOK</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PT 6913 HSM 4815 KG Beting Chetok, Mukim Chetok, 17040 Pasir Mas, Kelantan, 17040 Pasiir Mas, Kelantan</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>PERSIARAN RAYA GUA MUSANG</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Lebuhraya Kuala Lumpur - Gua Musang, Bandar Baru Gua Musang, 18300 Gua Musang, Kelantan</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Gua Musang, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SUNWAY TAMBUN</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Lot Pt 303545, Sunway City Tambun, Mukim Hulu Kinta, 31150 Kinta, Perak</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SPG PULAI ARAH UTARA</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Simpang Pulai Layby Lebuhraya Plus (Arah Utara), 31300 Ipoh, Perak</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>UTP TRONOH</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Lot Pt 13157 Grn 27603, Universiti Teknologi Petronas, Lebuhraya Ipoh-Lumut (Arah Ipoh), Mukim Bota, 31570 Ipoh Tengah, Perak</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>KAMPUNG KEDAH</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Lot Pt 3491 Hs(M) 1307 Kg Kedah, Mukim Parit Buntar, District Of Kerian, Perak, 34200 Parit Buntar, Perak</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Taiping, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>BKE 2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Lot No.3167 Hs (M) Mukim 4, 13700 Seberang Jaya, Pulau Pinang</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Parit Buntar, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SPRINT HIGHWAY</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Lot 52985 Lebuhraya Sprint Mukim Kuala Lumpur, 47800 Damansara, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>JALAN JELATEK 2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Lot 883 Jalan Jelatek, 68000 Hulu Kelang, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TMN DAGANG</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Lot 44706 (Pt 12671 Hs(D) 130125), Taman Dagang, 68000 Ampang, Selangor</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>PEKAN AMPANG</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Lot Pt 27361, Pekan Ampang, 68000 Ampang, Selangor</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TEMASYA</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Petronas Temasya Federal Highway, Km 18.5 Federal Highway Subang Jaya Exit (Kl Bound), Seksyen U1, 40150 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>USJ 9</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Lot 10446, Jalan Bakti, Subang Usj 9/3, 47600 Subang Jaya, Selangor</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>PUTRA HEIGHT 2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Lot 3612, Persiaran Putra Bistari, 47620 Subang Jaya, Selangor</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SHAPADU HIGHWAY</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Lot 52, Kawasan R&amp;R, Lebuhraya Baru Shapadu 41400, Klang. Selangor, 41400 Klang, Selangor</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>PUNCAK ALAM 2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Lot Pt 1937, Mukim Ijok, Bandar Puncak Alam, 45000 Kuala Selangor, Selangor</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>REMBAU</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Lot 2509 Mukim Chembong, 73100 Rembau, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Beranang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>KOTA TINGGI BYPASS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ptd 40120, Jalan Kota Tinggi-Bypass, 81900 Kota Tinggi, Johor</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>JALAN DATO LIM HOE LEK</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Lot Pt 57349, Hs (D) 19022, Jalan Dato' Lim Hoe Lek, 25200 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>JALAN TELUK SISEK</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Lot Pt 21123, Jalan Teluk Sisek, 25000 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>JALAN HAJI AHMAD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Lot 5093, Jalan Hj Ahmad, 25050 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>JALAN AIR PUTIH</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Lot 33050 Jalan Air Puteh, 25300 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TANJONG LUMPUR</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Lot 36622, Tanjung Lumpur, 26060 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>BANDAR INDERA MAHKOTA</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Lot Pt 33423 Sektor 1, Bandar Indera Mahkota, 25000 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>JLN KUANTAN-SG LEMBING</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Lot Pt 100381, Hs(D) 33924, Jalan Kuantan - Sungai Lembing, 25200 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>BANDAR KUANTAN PUTRI</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Bandar Baru Kuantan Putri, Jalan Pekan, 28100 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>PERAMU 2</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Lot 879, Gm 837, Mukim Langgar, 26600 Pekan, Pahang</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>WAKAF BHARU</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Lot Pt 36982, Hs(M)25510, Wakaf Bharu, Mukim Kuala Nerus, 21300 Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MACHANG BYPASS</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Machang Bypass, Lot Pt 4791 Hs(M) Kg. Kweng Hitam, Jalan Kuala Krai, 18500 Machang, Kelantan</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Jerteh, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>JALAN BAYAM</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Lot 2712 Gm 1783, Jalan Bayam, 15200 , Kelantan</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>BDR BARU TUNJONG</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>S/65, Lot 662, Lebuhraya Jalan Pasir Mas-Salor, 15100 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>PENGKALAN KUBOR</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Lot 996, Mukim Geting, Pengkalan Kubur, 16200 Tumpat, Kelantan</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>KG GAUNG</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Lot 599 Mukim Gua, Kuala Lemal, 17000 Pasir Mas, Kelantan</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>GUA MUSANG</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Lot 169, Bandar Baru Gua Musang, 18300 Gua Musang, Kelantan</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Gua Musang, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>KAMPUNG SIMEE</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Lot Pt 66101, No. 8, Jalan Ghazali Jawi Off Jalan Fair Park (Kg Simme), 31400 Ipoh, Perak</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>KLABANG JAYA</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Lot 92889, Km 9, Jalan Ipoh - Chemor, 31200 Ipoh, Perak</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>BATU 8 LABUK BY PASS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cl 075209602, Batu 8, Japan Lintas Labuk, Peti Surat 1426, 90715 Sandakan, Sabah</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Sandakan, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>JLN KUHARA 2</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Lot Tl107528772 Km 3 Jalan Kuhara, 91000 Tawau, Sabah</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Tawau, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>JALAN SEGAMA</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Batu 7, Jalan Segama , Peti Surat 5, 91110 Lahad Datu, Sabah</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Lahad Datu, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>BAN HOCK</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Lot 45, Section 52, Kuching Town Land District, Jalan Ban Hock, 93100 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>HEIGHT DRIVE</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Sublot 195 ( New Sublot 98 Height Drive ) Jalan Stutong, 93350 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ISTHMUS (KUCHING BOUND)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Lot 3118, Block 7, Muara Tebas Land District, Tanjong Seberang Pending Point, Sejingkat, 93050 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>KOTA SAMARAHAN</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Lot 9098, Block 26, Muara Tuang Land District, Kota Samarahan Expressway, 94300 , Sarawak</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>PUJUT-LUTONG</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Lot 1876, Jalan Pujut-Lutong, Miri Consession Land District, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>PERMYJAYA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Lot 6268 Blok 10, Kuala Baram Land District, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>LUAK BAY</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Lot 4743, Block 1, Lambir Land District, Jalan Bakam, 98008 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>JALAN ROCK</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Lot 1384, Section 10, Kcld, Rock Road, 93200 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Sri Aman, Sarawak</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
